--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2335872.646231811</v>
+        <v>-2337801.408135385</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>175.3421784042263</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>276.1565137023555</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.16194852731947</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="X2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>47.85071053761352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,25 +738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>116.2781439646324</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
         <v>225.9364262421938</v>
@@ -798,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>44.56666190015163</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.46550985000068</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>79.32511041905947</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6656840978772</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>331.2414836209387</v>
+        <v>331.2414836209379</v>
       </c>
       <c r="C5" t="n">
-        <v>331.2414836209387</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>269.910132547618</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>68.44222855853238</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>201.4679039890863</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>331.2414836209387</v>
+        <v>331.2414836209379</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>331.2414836209379</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,16 +975,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>133.849307418418</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>24.53313944263764</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>89.14820727672677</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>84.10349949713473</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>4.997638917232326</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>73.71360529069429</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>161.8214957702428</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>38.02965476148449</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>67.75922364921323</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>83.82466560786639</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>120.7567263487572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>130.4966170451643</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>67.84064279592573</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>146.185469167092</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,13 +1822,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>94.42251759820803</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>174.7611531036557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2175,10 +2175,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2239,25 +2239,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>15.52415699980557</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>211.25416719015</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2333,7 +2333,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274074</v>
@@ -2527,7 +2527,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>139.1537278750033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2716,7 +2716,7 @@
         <v>139.6451927843493</v>
       </c>
       <c r="D28" t="n">
-        <v>121.0138447039339</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>138.8919401490991</v>
+        <v>138.891940149099</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>82.8176171499935</v>
+        <v>82.81761714999344</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>82.3627240895143</v>
+        <v>82.36272408951424</v>
       </c>
       <c r="S28" t="n">
-        <v>170.3191816693248</v>
+        <v>170.3191816693247</v>
       </c>
       <c r="T28" t="n">
-        <v>193.9459327441108</v>
+        <v>190.1072506864218</v>
       </c>
       <c r="U28" t="n">
-        <v>258.6357240842989</v>
+        <v>258.6357240842988</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>258.9213700223125</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>198.1080270747586</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.317155328638624</v>
+        <v>190.9830250378162</v>
       </c>
     </row>
     <row r="29">
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>152.2303518676589</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>121.0138447039339</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>13.1422426961158</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>121.3122000532576</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>82.81761714999344</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>82.36272408951436</v>
+        <v>82.36272408951424</v>
       </c>
       <c r="S31" t="n">
-        <v>170.3191816693248</v>
+        <v>170.3191816693247</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>193.9459327441107</v>
       </c>
       <c r="U31" t="n">
-        <v>258.6357240842989</v>
+        <v>258.6357240842988</v>
       </c>
       <c r="V31" t="n">
-        <v>224.5360150095496</v>
+        <v>224.5360150095495</v>
       </c>
       <c r="W31" t="n">
-        <v>205.9121410563791</v>
+        <v>258.9213700223124</v>
       </c>
       <c r="X31" t="n">
-        <v>198.1080270747587</v>
+        <v>198.1080270747586</v>
       </c>
       <c r="Y31" t="n">
-        <v>190.9830250378164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3521,7 +3521,7 @@
         <v>237.1553589816771</v>
       </c>
       <c r="I38" t="n">
-        <v>13.6472449231001</v>
+        <v>13.64724492310012</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>140.3508982088613</v>
       </c>
       <c r="U38" t="n">
-        <v>182.9467051201603</v>
+        <v>182.9467051201604</v>
       </c>
       <c r="V38" t="n">
-        <v>259.6203683404943</v>
+        <v>259.6203683404931</v>
       </c>
       <c r="W38" t="n">
         <v>281.1090785877724</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>314.60195153384</v>
+        <v>314.6019515338399</v>
       </c>
       <c r="C41" t="n">
         <v>297.1410016413669</v>
@@ -3746,7 +3746,7 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E41" t="n">
-        <v>313.7984799426212</v>
+        <v>313.7984799426211</v>
       </c>
       <c r="F41" t="n">
         <v>338.7441556120708</v>
@@ -3755,10 +3755,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H41" t="n">
-        <v>237.1553589816771</v>
+        <v>237.155358981677</v>
       </c>
       <c r="I41" t="n">
-        <v>13.64724492310012</v>
+        <v>13.64724492310006</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>64.81847467555819</v>
       </c>
       <c r="T41" t="n">
-        <v>140.3508982088613</v>
+        <v>140.3508982088612</v>
       </c>
       <c r="U41" t="n">
-        <v>182.9467051201604</v>
+        <v>182.9467051201603</v>
       </c>
       <c r="V41" t="n">
-        <v>259.6203683404931</v>
+        <v>259.6203683404942</v>
       </c>
       <c r="W41" t="n">
-        <v>281.1090785877724</v>
+        <v>281.1090785877723</v>
       </c>
       <c r="X41" t="n">
-        <v>301.5992105488284</v>
+        <v>301.5992105488275</v>
       </c>
       <c r="Y41" t="n">
-        <v>318.106048526413</v>
+        <v>318.1060485264129</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.81847467555819</v>
+        <v>64.81847467555815</v>
       </c>
       <c r="T44" t="n">
         <v>140.3508982088612</v>
       </c>
       <c r="U44" t="n">
-        <v>182.9467051201593</v>
+        <v>182.9467051201603</v>
       </c>
       <c r="V44" t="n">
         <v>259.6203683404942</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>523.4729093258054</v>
+        <v>221.4664328873574</v>
       </c>
       <c r="C2" t="n">
-        <v>523.4729093258054</v>
+        <v>221.4664328873574</v>
       </c>
       <c r="D2" t="n">
-        <v>523.4729093258054</v>
+        <v>44.35312136793684</v>
       </c>
       <c r="E2" t="n">
-        <v>523.4729093258054</v>
+        <v>44.35312136793684</v>
       </c>
       <c r="F2" t="n">
-        <v>244.5269358890827</v>
+        <v>37.40762061873336</v>
       </c>
       <c r="G2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I2" t="n">
         <v>22.09252109618844</v>
@@ -4352,28 +4352,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="U2" t="n">
-        <v>850.7529338106226</v>
+        <v>500.4124063240801</v>
       </c>
       <c r="V2" t="n">
-        <v>850.7529338106226</v>
+        <v>500.4124063240801</v>
       </c>
       <c r="W2" t="n">
-        <v>850.7529338106226</v>
+        <v>221.4664328873574</v>
       </c>
       <c r="X2" t="n">
-        <v>571.8069603738999</v>
+        <v>221.4664328873574</v>
       </c>
       <c r="Y2" t="n">
-        <v>523.4729093258054</v>
+        <v>221.4664328873574</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>622.170085715368</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="C3" t="n">
-        <v>447.717056434241</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="D3" t="n">
-        <v>298.7826467729898</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="E3" t="n">
-        <v>139.5451917675343</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="F3" t="n">
-        <v>139.5451917675343</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618844</v>
+        <v>222.40666688016</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I3" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>165.799003153448</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L3" t="n">
-        <v>411.954469746149</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M3" t="n">
-        <v>411.954469746149</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="N3" t="n">
         <v>562.3310704112777</v>
@@ -4431,28 +4431,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S3" t="n">
-        <v>1104.626054809422</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="T3" t="n">
-        <v>1104.626054809422</v>
+        <v>634.2968452196395</v>
       </c>
       <c r="U3" t="n">
-        <v>876.4074424435696</v>
+        <v>406.0782328537872</v>
       </c>
       <c r="V3" t="n">
-        <v>876.4074424435696</v>
+        <v>406.0782328537872</v>
       </c>
       <c r="W3" t="n">
-        <v>622.170085715368</v>
+        <v>406.0782328537872</v>
       </c>
       <c r="X3" t="n">
-        <v>622.170085715368</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="Y3" t="n">
-        <v>622.170085715368</v>
+        <v>361.0614026516138</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.024529708411</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="C4" t="n">
-        <v>1091.024529708411</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="D4" t="n">
-        <v>1091.024529708411</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="E4" t="n">
-        <v>1091.024529708411</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="F4" t="n">
-        <v>1091.024529708411</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="G4" t="n">
-        <v>1091.024529708411</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="H4" t="n">
-        <v>927.7258589024746</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="I4" t="n">
-        <v>927.7258589024746</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="J4" t="n">
-        <v>927.7258589024746</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="K4" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>964.3352350712132</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>1013.323812322355</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
-        <v>1066.582167123171</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>1099.758582381748</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>1104.626054809422</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="R4" t="n">
-        <v>1104.626054809422</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="S4" t="n">
-        <v>1104.626054809422</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="T4" t="n">
-        <v>1104.626054809422</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="U4" t="n">
-        <v>1104.626054809422</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="V4" t="n">
-        <v>1104.626054809422</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="W4" t="n">
-        <v>1104.626054809422</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="X4" t="n">
-        <v>1104.626054809422</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="Y4" t="n">
-        <v>1104.626054809422</v>
+        <v>117.3019767171697</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>452.2882867757105</v>
+        <v>321.2038629051518</v>
       </c>
       <c r="C5" t="n">
-        <v>117.7009295828432</v>
+        <v>321.2038629051518</v>
       </c>
       <c r="D5" t="n">
-        <v>117.7009295828432</v>
+        <v>48.56736538230535</v>
       </c>
       <c r="E5" t="n">
-        <v>117.7009295828432</v>
+        <v>48.56736538230535</v>
       </c>
       <c r="F5" t="n">
-        <v>110.7554288336397</v>
+        <v>41.62186463310188</v>
       </c>
       <c r="G5" t="n">
-        <v>95.63288289021285</v>
+        <v>26.49931868967503</v>
       </c>
       <c r="H5" t="n">
-        <v>95.63288289021285</v>
+        <v>26.49931868967503</v>
       </c>
       <c r="I5" t="n">
-        <v>26.49931868967509</v>
+        <v>26.49931868967503</v>
       </c>
       <c r="J5" t="n">
-        <v>42.51684241306765</v>
+        <v>42.51684241306748</v>
       </c>
       <c r="K5" t="n">
-        <v>187.2677626074271</v>
+        <v>187.2677626074266</v>
       </c>
       <c r="L5" t="n">
-        <v>419.120706402681</v>
+        <v>419.1207064026799</v>
       </c>
       <c r="M5" t="n">
-        <v>693.7083251274844</v>
+        <v>693.7083251274829</v>
       </c>
       <c r="N5" t="n">
-        <v>958.1070610499593</v>
+        <v>958.1070610499573</v>
       </c>
       <c r="O5" t="n">
-        <v>1162.583652085454</v>
+        <v>1162.583652085452</v>
       </c>
       <c r="P5" t="n">
-        <v>1299.425308893585</v>
+        <v>1299.425308893582</v>
       </c>
       <c r="Q5" t="n">
-        <v>1324.965934483755</v>
+        <v>1324.965934483751</v>
       </c>
       <c r="R5" t="n">
-        <v>1324.965934483755</v>
+        <v>1324.965934483751</v>
       </c>
       <c r="S5" t="n">
-        <v>1121.463001161445</v>
+        <v>1324.965934483751</v>
       </c>
       <c r="T5" t="n">
-        <v>1121.463001161445</v>
+        <v>1324.965934483751</v>
       </c>
       <c r="U5" t="n">
-        <v>1121.463001161445</v>
+        <v>1324.965934483751</v>
       </c>
       <c r="V5" t="n">
-        <v>1121.463001161445</v>
+        <v>1324.965934483751</v>
       </c>
       <c r="W5" t="n">
-        <v>786.8756439685778</v>
+        <v>990.3785772908849</v>
       </c>
       <c r="X5" t="n">
-        <v>786.8756439685778</v>
+        <v>655.7912200980184</v>
       </c>
       <c r="Y5" t="n">
-        <v>786.8756439685778</v>
+        <v>655.7912200980184</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161.7006393143397</v>
+        <v>505.986690261454</v>
       </c>
       <c r="C6" t="n">
-        <v>26.49931868967509</v>
+        <v>505.986690261454</v>
       </c>
       <c r="D6" t="n">
-        <v>26.49931868967509</v>
+        <v>357.0522806002028</v>
       </c>
       <c r="E6" t="n">
-        <v>26.49931868967509</v>
+        <v>197.8148255947473</v>
       </c>
       <c r="F6" t="n">
-        <v>26.49931868967509</v>
+        <v>51.28026762163225</v>
       </c>
       <c r="G6" t="n">
-        <v>26.49931868967509</v>
+        <v>51.28026762163225</v>
       </c>
       <c r="H6" t="n">
-        <v>26.49931868967509</v>
+        <v>51.28026762163225</v>
       </c>
       <c r="I6" t="n">
-        <v>26.49931868967509</v>
+        <v>26.49931868967503</v>
       </c>
       <c r="J6" t="n">
-        <v>26.49931868967509</v>
+        <v>26.49931868967503</v>
       </c>
       <c r="K6" t="n">
-        <v>26.49931868967509</v>
+        <v>180.2044358514757</v>
       </c>
       <c r="L6" t="n">
-        <v>70.61709979693069</v>
+        <v>180.2044358514757</v>
       </c>
       <c r="M6" t="n">
-        <v>398.54616858166</v>
+        <v>398.5461685816584</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4752373663893</v>
+        <v>726.4752373663869</v>
       </c>
       <c r="O6" t="n">
-        <v>1016.996582846682</v>
+        <v>1016.996582846679</v>
       </c>
       <c r="P6" t="n">
-        <v>1233.162507731466</v>
+        <v>1233.162507731463</v>
       </c>
       <c r="Q6" t="n">
-        <v>1324.965934483755</v>
+        <v>1324.965934483751</v>
       </c>
       <c r="R6" t="n">
-        <v>1234.917240264839</v>
+        <v>1324.965934483751</v>
       </c>
       <c r="S6" t="n">
-        <v>1234.917240264839</v>
+        <v>1324.965934483751</v>
       </c>
       <c r="T6" t="n">
-        <v>1234.917240264839</v>
+        <v>1324.965934483751</v>
       </c>
       <c r="U6" t="n">
-        <v>1234.917240264839</v>
+        <v>1324.965934483751</v>
       </c>
       <c r="V6" t="n">
-        <v>999.7651320330961</v>
+        <v>1089.813826252009</v>
       </c>
       <c r="W6" t="n">
-        <v>745.5277753048945</v>
+        <v>1089.813826252009</v>
       </c>
       <c r="X6" t="n">
-        <v>537.6762750993616</v>
+        <v>881.9623260464759</v>
       </c>
       <c r="Y6" t="n">
-        <v>329.9159763344077</v>
+        <v>674.2020272815221</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.49931868967509</v>
+        <v>264.4135621855702</v>
       </c>
       <c r="C7" t="n">
-        <v>26.49931868967509</v>
+        <v>264.4135621855702</v>
       </c>
       <c r="D7" t="n">
-        <v>26.49931868967509</v>
+        <v>264.4135621855702</v>
       </c>
       <c r="E7" t="n">
-        <v>26.49931868967509</v>
+        <v>116.5004686031771</v>
       </c>
       <c r="F7" t="n">
-        <v>26.49931868967509</v>
+        <v>31.54743880809152</v>
       </c>
       <c r="G7" t="n">
-        <v>26.49931868967509</v>
+        <v>31.54743880809152</v>
       </c>
       <c r="H7" t="n">
-        <v>26.49931868967509</v>
+        <v>31.54743880809152</v>
       </c>
       <c r="I7" t="n">
-        <v>26.49931868967509</v>
+        <v>31.54743880809152</v>
       </c>
       <c r="J7" t="n">
-        <v>26.49931868967509</v>
+        <v>31.54743880809152</v>
       </c>
       <c r="K7" t="n">
-        <v>26.49931868967509</v>
+        <v>26.49931868967503</v>
       </c>
       <c r="L7" t="n">
-        <v>75.69444867730923</v>
+        <v>75.69444867730898</v>
       </c>
       <c r="M7" t="n">
-        <v>137.9529386775772</v>
+        <v>137.9529386775768</v>
       </c>
       <c r="N7" t="n">
-        <v>204.1656773620591</v>
+        <v>204.1656773620585</v>
       </c>
       <c r="O7" t="n">
-        <v>249.3075628649916</v>
+        <v>249.3075628649908</v>
       </c>
       <c r="P7" t="n">
-        <v>264.4135621855711</v>
+        <v>264.4135621855702</v>
       </c>
       <c r="Q7" t="n">
-        <v>189.9553750232536</v>
+        <v>264.4135621855702</v>
       </c>
       <c r="R7" t="n">
-        <v>26.49931868967509</v>
+        <v>264.4135621855702</v>
       </c>
       <c r="S7" t="n">
-        <v>26.49931868967509</v>
+        <v>264.4135621855702</v>
       </c>
       <c r="T7" t="n">
-        <v>26.49931868967509</v>
+        <v>264.4135621855702</v>
       </c>
       <c r="U7" t="n">
-        <v>26.49931868967509</v>
+        <v>264.4135621855702</v>
       </c>
       <c r="V7" t="n">
-        <v>26.49931868967509</v>
+        <v>264.4135621855702</v>
       </c>
       <c r="W7" t="n">
-        <v>26.49931868967509</v>
+        <v>264.4135621855702</v>
       </c>
       <c r="X7" t="n">
-        <v>26.49931868967509</v>
+        <v>264.4135621855702</v>
       </c>
       <c r="Y7" t="n">
-        <v>26.49931868967509</v>
+        <v>264.4135621855702</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1364.743608328862</v>
+        <v>1571.689018870909</v>
       </c>
       <c r="C8" t="n">
-        <v>995.7810913884502</v>
+        <v>1202.726501930497</v>
       </c>
       <c r="D8" t="n">
-        <v>995.7810913884502</v>
+        <v>844.4608033237464</v>
       </c>
       <c r="E8" t="n">
-        <v>609.992838790206</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>603.0473380410025</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598976</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W8" t="n">
-        <v>1364.743608328862</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="X8" t="n">
-        <v>1364.743608328862</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="Y8" t="n">
-        <v>1364.743608328862</v>
+        <v>1958.28885893503</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>348.7460229006679</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="C10" t="n">
-        <v>348.7460229006679</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>643.457604804549</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>354.283994459117</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="X10" t="n">
-        <v>470.7225141620388</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="Y10" t="n">
-        <v>348.7460229006679</v>
+        <v>99.59950625323009</v>
       </c>
     </row>
     <row r="11">
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5072,19 +5072,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>731.3351829786183</v>
+        <v>379.1484955647068</v>
       </c>
       <c r="C13" t="n">
-        <v>562.3990000507114</v>
+        <v>379.1484955647069</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>229.0318561523711</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>229.0318561523711</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>229.0318561523711</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5200,7 +5200,7 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799364</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.499100520942</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X13" t="n">
-        <v>981.5095496229244</v>
+        <v>781.5895395384766</v>
       </c>
       <c r="Y13" t="n">
-        <v>912.983647808858</v>
+        <v>560.7969603949465</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,16 +5261,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5279,7 +5279,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5303,13 +5303,13 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.29497012173</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247859</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383441</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>675.0071030383441</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>675.0071030383441</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>675.0071030383441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.0071030383441</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,40 +5498,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5540,10 +5540,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
         <v>4262.357857465301</v>
@@ -5555,10 +5555,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,13 +5592,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
         <v>1247.466478653857</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1029.666285013068</v>
+        <v>619.9540936663861</v>
       </c>
       <c r="C19" t="n">
-        <v>860.7301020851614</v>
+        <v>451.017910738479</v>
       </c>
       <c r="D19" t="n">
-        <v>710.6134626728257</v>
+        <v>451.017910738479</v>
       </c>
       <c r="E19" t="n">
-        <v>562.7003690904326</v>
+        <v>451.017910738479</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925222</v>
+        <v>304.1279632405687</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>304.1279632405687</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5674,10 +5674,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5701,22 +5701,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V19" t="n">
-        <v>1387.841167119728</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="W19" t="n">
-        <v>1387.841167119728</v>
+        <v>619.9540936663861</v>
       </c>
       <c r="X19" t="n">
-        <v>1387.841167119728</v>
+        <v>619.9540936663861</v>
       </c>
       <c r="Y19" t="n">
-        <v>1211.314749843308</v>
+        <v>619.9540936663861</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5814,43 +5814,43 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126485</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571617</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636264</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643589</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307622</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.91651652632</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>973.0255547109413</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>804.0893717830344</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>653.9727323706986</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688076</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799372</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471204</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473457</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>786.082206476521</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706342</v>
+        <v>1483.235303891432</v>
       </c>
       <c r="W22" t="n">
-        <v>531.3977182706342</v>
+        <v>1193.818133854471</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>1193.818133854471</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>973.0255547109413</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6008,31 +6008,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1296.555866665167</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6145,13 +6145,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
         <v>779.063975947119</v>
@@ -6175,19 +6175,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>755.1831334811259</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>465.7659634441653</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>237.7764125461478</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028587</v>
@@ -6227,10 +6227,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6309,22 +6309,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>584.4580962960192</v>
+        <v>462.2218895243684</v>
       </c>
       <c r="C28" t="n">
-        <v>443.4023460087976</v>
+        <v>321.1661392371469</v>
       </c>
       <c r="D28" t="n">
-        <v>321.1661392371473</v>
+        <v>321.1661392371469</v>
       </c>
       <c r="E28" t="n">
-        <v>321.1661392371473</v>
+        <v>321.1661392371469</v>
       </c>
       <c r="F28" t="n">
-        <v>321.1661392371473</v>
+        <v>321.1661392371469</v>
       </c>
       <c r="G28" t="n">
         <v>180.871250197653</v>
@@ -6379,55 +6379,55 @@
         <v>180.871250197653</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>136.9253959553315</v>
       </c>
       <c r="K28" t="n">
-        <v>314.4364122310786</v>
+        <v>314.4364122310787</v>
       </c>
       <c r="L28" t="n">
-        <v>589.4740692733435</v>
+        <v>589.4740692733437</v>
       </c>
       <c r="M28" t="n">
-        <v>888.366424071662</v>
+        <v>888.3664240716623</v>
       </c>
       <c r="N28" t="n">
-        <v>1186.236145130345</v>
+        <v>1186.236145130346</v>
       </c>
       <c r="O28" t="n">
         <v>1447.436735166878</v>
       </c>
       <c r="P28" t="n">
-        <v>1651.362111803696</v>
+        <v>1651.362111803697</v>
       </c>
       <c r="Q28" t="n">
-        <v>1717.521166806988</v>
+        <v>1717.521166806989</v>
       </c>
       <c r="R28" t="n">
         <v>1634.326496009499</v>
       </c>
       <c r="S28" t="n">
-        <v>1462.286918565736</v>
+        <v>1462.286918565737</v>
       </c>
       <c r="T28" t="n">
-        <v>1266.381935995927</v>
+        <v>1270.259392619856</v>
       </c>
       <c r="U28" t="n">
-        <v>1005.133729850171</v>
+        <v>1009.011186474099</v>
       </c>
       <c r="V28" t="n">
-        <v>1005.133729850171</v>
+        <v>1009.011186474099</v>
       </c>
       <c r="W28" t="n">
-        <v>743.5969924538954</v>
+        <v>1009.011186474099</v>
       </c>
       <c r="X28" t="n">
-        <v>743.5969924538954</v>
+        <v>808.9020682167675</v>
       </c>
       <c r="Y28" t="n">
-        <v>738.2261284855736</v>
+        <v>615.9899217139227</v>
       </c>
     </row>
     <row r="29">
@@ -6558,10 +6558,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>219.4532982319363</v>
+        <v>316.6838186313634</v>
       </c>
       <c r="C31" t="n">
-        <v>219.4532982319363</v>
+        <v>316.6838186313634</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>316.6838186313634</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>316.6838186313634</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>316.6838186313634</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>303.4088260090243</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>180.871250197653</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>136.9253959553314</v>
+        <v>136.9253959553315</v>
       </c>
       <c r="K31" t="n">
-        <v>314.4364122310785</v>
+        <v>314.4364122310786</v>
       </c>
       <c r="L31" t="n">
-        <v>589.4740692733433</v>
+        <v>589.4740692733437</v>
       </c>
       <c r="M31" t="n">
-        <v>888.3664240716618</v>
+        <v>888.3664240716623</v>
       </c>
       <c r="N31" t="n">
-        <v>1186.236145130345</v>
+        <v>1186.236145130346</v>
       </c>
       <c r="O31" t="n">
-        <v>1447.436735166877</v>
+        <v>1447.436735166878</v>
       </c>
       <c r="P31" t="n">
-        <v>1651.362111803696</v>
+        <v>1651.362111803697</v>
       </c>
       <c r="Q31" t="n">
-        <v>1717.521166806988</v>
+        <v>1717.521166806989</v>
       </c>
       <c r="R31" t="n">
-        <v>1634.326496009498</v>
+        <v>1634.326496009499</v>
       </c>
       <c r="S31" t="n">
-        <v>1462.286918565736</v>
+        <v>1462.286918565737</v>
       </c>
       <c r="T31" t="n">
-        <v>1462.286918565736</v>
+        <v>1266.381935995928</v>
       </c>
       <c r="U31" t="n">
-        <v>1201.038712419979</v>
+        <v>1005.133729850172</v>
       </c>
       <c r="V31" t="n">
-        <v>974.2346568547779</v>
+        <v>778.3296742849705</v>
       </c>
       <c r="W31" t="n">
-        <v>766.2425951816676</v>
+        <v>516.7929368886953</v>
       </c>
       <c r="X31" t="n">
-        <v>566.1334769243356</v>
+        <v>316.6838186313634</v>
       </c>
       <c r="Y31" t="n">
-        <v>373.2213304214907</v>
+        <v>316.6838186313634</v>
       </c>
     </row>
     <row r="32">
@@ -6677,40 +6677,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>485.5200852635876</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108323</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229664</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504504</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010309</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="35">
@@ -6938,25 +6938,25 @@
         <v>344.8139583742029</v>
       </c>
       <c r="K35" t="n">
-        <v>646.6967634067117</v>
+        <v>868.2168169432326</v>
       </c>
       <c r="L35" t="n">
-        <v>1348.30091945051</v>
+        <v>1569.820972987031</v>
       </c>
       <c r="M35" t="n">
-        <v>2145.577273170401</v>
+        <v>1922.078928549017</v>
       </c>
       <c r="N35" t="n">
-        <v>2508.148939106567</v>
+        <v>2284.650594485183</v>
       </c>
       <c r="O35" t="n">
-        <v>3214.172000130763</v>
+        <v>2836.364143234531</v>
       </c>
       <c r="P35" t="n">
-        <v>3460.491244296798</v>
+        <v>3401.264108490334</v>
       </c>
       <c r="Q35" t="n">
-        <v>3807.4858326055</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R35" t="n">
         <v>3807.4858326055</v>
@@ -7014,28 +7014,28 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J36" t="n">
-        <v>242.4709188044724</v>
+        <v>202.087856505533</v>
       </c>
       <c r="K36" t="n">
-        <v>653.361187648985</v>
+        <v>612.9781253500456</v>
       </c>
       <c r="L36" t="n">
-        <v>900.1263155554491</v>
+        <v>859.7432532565097</v>
       </c>
       <c r="M36" t="n">
-        <v>1207.446448835411</v>
+        <v>1167.063386536471</v>
       </c>
       <c r="N36" t="n">
-        <v>1537.309076499444</v>
+        <v>1496.926014200504</v>
       </c>
       <c r="O36" t="n">
-        <v>1816.849141718141</v>
+        <v>1776.466079419201</v>
       </c>
       <c r="P36" t="n">
-        <v>2307.396713252248</v>
+        <v>2296.766701154948</v>
       </c>
       <c r="Q36" t="n">
-        <v>2602.506130567962</v>
+        <v>2591.876118470662</v>
       </c>
       <c r="R36" t="n">
         <v>2602.506130567962</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>638.3928643026572</v>
+        <v>638.3928643026569</v>
       </c>
       <c r="C37" t="n">
-        <v>538.2767724147914</v>
+        <v>538.276772414791</v>
       </c>
       <c r="D37" t="n">
-        <v>456.9802240424967</v>
+        <v>456.9802240424963</v>
       </c>
       <c r="E37" t="n">
-        <v>377.8872215001447</v>
+        <v>377.8872215001443</v>
       </c>
       <c r="F37" t="n">
-        <v>299.8173650422754</v>
+        <v>299.817365042275</v>
       </c>
       <c r="G37" t="n">
-        <v>200.462134402137</v>
+        <v>200.4621344021367</v>
       </c>
       <c r="H37" t="n">
         <v>118.8642169901215</v>
@@ -7126,7 +7126,7 @@
         <v>1689.133209963487</v>
       </c>
       <c r="U37" t="n">
-        <v>1468.824662217087</v>
+        <v>1468.824662217086</v>
       </c>
       <c r="V37" t="n">
         <v>1282.960265051241</v>
@@ -7135,10 +7135,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X37" t="n">
-        <v>903.1937261963451</v>
+        <v>903.1937261963448</v>
       </c>
       <c r="Y37" t="n">
-        <v>751.2212380928559</v>
+        <v>751.2212380928556</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1925.513372462138</v>
+        <v>1925.51337246214</v>
       </c>
       <c r="C38" t="n">
-        <v>1625.370946561768</v>
+        <v>1625.370946561769</v>
       </c>
       <c r="D38" t="n">
-        <v>1335.925338995059</v>
+        <v>1335.92533899506</v>
       </c>
       <c r="E38" t="n">
-        <v>1018.957177436855</v>
+        <v>1018.957177436856</v>
       </c>
       <c r="F38" t="n">
-        <v>676.7913636872888</v>
+        <v>676.79136368729</v>
       </c>
       <c r="G38" t="n">
         <v>329.485680192289</v>
       </c>
       <c r="H38" t="n">
-        <v>89.93481253402931</v>
+        <v>89.93481253402933</v>
       </c>
       <c r="I38" t="n">
         <v>76.14971665211002</v>
@@ -7178,22 +7178,22 @@
         <v>700.8111679228796</v>
       </c>
       <c r="L38" t="n">
-        <v>1251.956982104087</v>
+        <v>1402.415323966678</v>
       </c>
       <c r="M38" t="n">
-        <v>1604.214937666074</v>
+        <v>1767.769416274169</v>
       </c>
       <c r="N38" t="n">
-        <v>2399.760058770104</v>
+        <v>2130.341082210336</v>
       </c>
       <c r="O38" t="n">
-        <v>3105.7831197943</v>
+        <v>2836.364143234531</v>
       </c>
       <c r="P38" t="n">
-        <v>3670.683085050103</v>
+        <v>3401.264108490334</v>
       </c>
       <c r="Q38" t="n">
-        <v>3807.4858326055</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R38" t="n">
         <v>3807.4858326055</v>
@@ -7208,16 +7208,16 @@
         <v>3415.449390176632</v>
       </c>
       <c r="V38" t="n">
-        <v>3153.206593873102</v>
+        <v>3153.206593873103</v>
       </c>
       <c r="W38" t="n">
-        <v>2869.258029643029</v>
+        <v>2869.25802964303</v>
       </c>
       <c r="X38" t="n">
-        <v>2564.61236242199</v>
+        <v>2564.612362421991</v>
       </c>
       <c r="Y38" t="n">
-        <v>2243.293121486219</v>
+        <v>2243.293121486221</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J39" t="n">
-        <v>242.4709188044724</v>
+        <v>117.6407938174676</v>
       </c>
       <c r="K39" t="n">
-        <v>653.361187648985</v>
+        <v>528.5310626619803</v>
       </c>
       <c r="L39" t="n">
-        <v>900.1263155554491</v>
+        <v>1142.428132418869</v>
       </c>
       <c r="M39" t="n">
-        <v>1207.446448835411</v>
+        <v>1449.748265698831</v>
       </c>
       <c r="N39" t="n">
-        <v>1537.309076499444</v>
+        <v>1779.610893362863</v>
       </c>
       <c r="O39" t="n">
-        <v>1816.849141718141</v>
+        <v>2059.150958581561</v>
       </c>
       <c r="P39" t="n">
-        <v>2307.396713252248</v>
+        <v>2515.373228110739</v>
       </c>
       <c r="Q39" t="n">
         <v>2602.506130567962</v>
@@ -7315,31 +7315,31 @@
         <v>456.9802240424968</v>
       </c>
       <c r="E40" t="n">
-        <v>377.8872215001447</v>
+        <v>377.8872215001448</v>
       </c>
       <c r="F40" t="n">
-        <v>299.8173650422756</v>
+        <v>299.8173650422755</v>
       </c>
       <c r="G40" t="n">
-        <v>200.462134402137</v>
+        <v>200.4621344021371</v>
       </c>
       <c r="H40" t="n">
-        <v>118.8642169901213</v>
+        <v>118.8642169901215</v>
       </c>
       <c r="I40" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J40" t="n">
-        <v>155.9829803443641</v>
+        <v>155.9829803443643</v>
       </c>
       <c r="K40" t="n">
-        <v>373.6189558173198</v>
+        <v>373.6189558173199</v>
       </c>
       <c r="L40" t="n">
-        <v>688.781572056793</v>
+        <v>688.7815720567935</v>
       </c>
       <c r="M40" t="n">
-        <v>1027.79888605232</v>
+        <v>1027.798886052321</v>
       </c>
       <c r="N40" t="n">
         <v>1365.793566308212</v>
@@ -7363,7 +7363,7 @@
         <v>1689.133209963487</v>
       </c>
       <c r="U40" t="n">
-        <v>1468.824662217087</v>
+        <v>1468.824662217086</v>
       </c>
       <c r="V40" t="n">
         <v>1282.960265051241</v>
@@ -7397,13 +7397,13 @@
         <v>1018.957177436856</v>
       </c>
       <c r="F41" t="n">
-        <v>676.79136368729</v>
+        <v>676.7913636872897</v>
       </c>
       <c r="G41" t="n">
-        <v>329.485680192289</v>
+        <v>329.4856801922889</v>
       </c>
       <c r="H41" t="n">
-        <v>89.93481253402933</v>
+        <v>89.93481253402928</v>
       </c>
       <c r="I41" t="n">
         <v>76.14971665211002</v>
@@ -7415,13 +7415,13 @@
         <v>868.2168169432326</v>
       </c>
       <c r="L41" t="n">
-        <v>1359.530184994436</v>
+        <v>1415.511460712183</v>
       </c>
       <c r="M41" t="n">
-        <v>1711.788140556423</v>
+        <v>1767.769416274169</v>
       </c>
       <c r="N41" t="n">
-        <v>2507.333261660453</v>
+        <v>2130.341082210336</v>
       </c>
       <c r="O41" t="n">
         <v>2836.364143234531</v>
@@ -7445,16 +7445,16 @@
         <v>3415.449390176632</v>
       </c>
       <c r="V41" t="n">
-        <v>3153.206593873103</v>
+        <v>3153.206593873102</v>
       </c>
       <c r="W41" t="n">
-        <v>2869.25802964303</v>
+        <v>2869.258029643029</v>
       </c>
       <c r="X41" t="n">
         <v>2564.612362421991</v>
       </c>
       <c r="Y41" t="n">
-        <v>2243.293121486221</v>
+        <v>2243.29312148622</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J42" t="n">
-        <v>242.4709188044724</v>
+        <v>117.6407938174676</v>
       </c>
       <c r="K42" t="n">
-        <v>653.361187648985</v>
+        <v>528.5310626619803</v>
       </c>
       <c r="L42" t="n">
-        <v>900.1263155554491</v>
+        <v>1142.428132418869</v>
       </c>
       <c r="M42" t="n">
-        <v>1207.446448835411</v>
+        <v>1449.748265698831</v>
       </c>
       <c r="N42" t="n">
-        <v>1537.309076499444</v>
+        <v>1779.610893362863</v>
       </c>
       <c r="O42" t="n">
-        <v>1816.849141718141</v>
+        <v>2059.150958581561</v>
       </c>
       <c r="P42" t="n">
-        <v>2307.396713252248</v>
+        <v>2515.373228110739</v>
       </c>
       <c r="Q42" t="n">
         <v>2602.506130567962</v>
@@ -7543,64 +7543,64 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>638.3928643026574</v>
+        <v>638.3928643026571</v>
       </c>
       <c r="C43" t="n">
-        <v>538.2767724147915</v>
+        <v>538.2767724147913</v>
       </c>
       <c r="D43" t="n">
-        <v>456.9802240424968</v>
+        <v>456.9802240424966</v>
       </c>
       <c r="E43" t="n">
-        <v>377.8872215001448</v>
+        <v>377.8872215001446</v>
       </c>
       <c r="F43" t="n">
-        <v>299.8173650422755</v>
+        <v>299.8173650422754</v>
       </c>
       <c r="G43" t="n">
         <v>200.4621344021371</v>
       </c>
       <c r="H43" t="n">
-        <v>118.8642169901215</v>
+        <v>118.8642169901214</v>
       </c>
       <c r="I43" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J43" t="n">
-        <v>155.982980344364</v>
+        <v>155.9829803443641</v>
       </c>
       <c r="K43" t="n">
-        <v>373.6189558173197</v>
+        <v>373.6189558173198</v>
       </c>
       <c r="L43" t="n">
-        <v>688.7815720567933</v>
+        <v>688.7815720567934</v>
       </c>
       <c r="M43" t="n">
         <v>1027.79888605232</v>
       </c>
       <c r="N43" t="n">
-        <v>1365.793566308213</v>
+        <v>1365.793566308212</v>
       </c>
       <c r="O43" t="n">
-        <v>1667.119115541954</v>
+        <v>1667.119115541953</v>
       </c>
       <c r="P43" t="n">
-        <v>1911.169451375981</v>
+        <v>1911.16945137598</v>
       </c>
       <c r="Q43" t="n">
         <v>2017.453465576481</v>
       </c>
       <c r="R43" t="n">
-        <v>1975.198453178348</v>
+        <v>1975.198453178347</v>
       </c>
       <c r="S43" t="n">
         <v>1844.098534133941</v>
       </c>
       <c r="T43" t="n">
-        <v>1689.133209963488</v>
+        <v>1689.133209963487</v>
       </c>
       <c r="U43" t="n">
-        <v>1468.824662217087</v>
+        <v>1468.824662217086</v>
       </c>
       <c r="V43" t="n">
         <v>1282.960265051241</v>
@@ -7609,10 +7609,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X43" t="n">
-        <v>903.1937261963451</v>
+        <v>903.1937261963449</v>
       </c>
       <c r="Y43" t="n">
-        <v>751.221238092856</v>
+        <v>751.2212380928557</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1925.51337246214</v>
+        <v>1925.513372462139</v>
       </c>
       <c r="C44" t="n">
         <v>1625.370946561769</v>
       </c>
       <c r="D44" t="n">
-        <v>1335.92533899506</v>
+        <v>1335.925338995059</v>
       </c>
       <c r="E44" t="n">
         <v>1018.957177436856</v>
       </c>
       <c r="F44" t="n">
-        <v>676.7913636872897</v>
+        <v>676.7913636872896</v>
       </c>
       <c r="G44" t="n">
-        <v>329.4856801922889</v>
+        <v>329.4856801922888</v>
       </c>
       <c r="H44" t="n">
         <v>89.93481253402928</v>
@@ -7649,25 +7649,25 @@
         <v>344.8139583742029</v>
       </c>
       <c r="K44" t="n">
-        <v>868.2168169432326</v>
+        <v>547.3128584977795</v>
       </c>
       <c r="L44" t="n">
-        <v>1569.820972987031</v>
+        <v>835.4324121366317</v>
       </c>
       <c r="M44" t="n">
-        <v>1922.078928549017</v>
+        <v>1632.708765856522</v>
       </c>
       <c r="N44" t="n">
-        <v>2284.650594485183</v>
+        <v>2428.253886960553</v>
       </c>
       <c r="O44" t="n">
-        <v>2895.591279040995</v>
+        <v>2836.364143234531</v>
       </c>
       <c r="P44" t="n">
-        <v>3460.491244296798</v>
+        <v>3401.264108490334</v>
       </c>
       <c r="Q44" t="n">
-        <v>3807.4858326055</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R44" t="n">
         <v>3807.4858326055</v>
@@ -7725,28 +7725,28 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J45" t="n">
-        <v>117.6407938174676</v>
+        <v>242.4709188044724</v>
       </c>
       <c r="K45" t="n">
-        <v>266.7104780195275</v>
+        <v>653.361187648985</v>
       </c>
       <c r="L45" t="n">
-        <v>688.4260841283381</v>
+        <v>900.1263155554491</v>
       </c>
       <c r="M45" t="n">
-        <v>995.7462174082998</v>
+        <v>1207.446448835411</v>
       </c>
       <c r="N45" t="n">
-        <v>1325.608845072333</v>
+        <v>1537.309076499444</v>
       </c>
       <c r="O45" t="n">
-        <v>1995.072606374992</v>
+        <v>1816.849141718141</v>
       </c>
       <c r="P45" t="n">
-        <v>2515.373228110739</v>
+        <v>2296.766701154948</v>
       </c>
       <c r="Q45" t="n">
-        <v>2602.506130567962</v>
+        <v>2591.876118470662</v>
       </c>
       <c r="R45" t="n">
         <v>2602.506130567962</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>638.3928643026571</v>
+        <v>638.392864302657</v>
       </c>
       <c r="C46" t="n">
         <v>538.2767724147913</v>
@@ -7804,7 +7804,7 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J46" t="n">
-        <v>155.9829803443644</v>
+        <v>155.9829803443642</v>
       </c>
       <c r="K46" t="n">
         <v>373.6189558173198</v>
@@ -7816,7 +7816,7 @@
         <v>1027.798886052321</v>
       </c>
       <c r="N46" t="n">
-        <v>1365.793566308212</v>
+        <v>1365.793566308213</v>
       </c>
       <c r="O46" t="n">
         <v>1667.119115541954</v>
@@ -7831,7 +7831,7 @@
         <v>1975.198453178347</v>
       </c>
       <c r="S46" t="n">
-        <v>1844.098534133941</v>
+        <v>1844.09853413394</v>
       </c>
       <c r="T46" t="n">
         <v>1689.133209963487</v>
@@ -7846,10 +7846,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X46" t="n">
-        <v>903.1937261963446</v>
+        <v>903.193726196345</v>
       </c>
       <c r="Y46" t="n">
-        <v>751.2212380928557</v>
+        <v>751.2212380928556</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>123.047446830095</v>
       </c>
       <c r="N3" t="n">
-        <v>263.6455160524019</v>
+        <v>270.015839604924</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>110.0844214862404</v>
+        <v>110.0844214862405</v>
       </c>
       <c r="K6" t="n">
-        <v>109.2075429097494</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6159881386094</v>
+        <v>100.0525728787555</v>
       </c>
       <c r="M6" t="n">
-        <v>428.4457249022612</v>
+        <v>317.7514460592853</v>
       </c>
       <c r="N6" t="n">
-        <v>416.4642451451475</v>
+        <v>416.4642451451471</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,25 +9009,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>283.6093329825491</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987297522</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776707</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445199</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>199.7396287231155</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,28 +10586,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>100.3877827362952</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>224.9319870457273</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>5.891030169484338</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>85.3000633212781</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,13 +10826,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>265.6830914569247</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>13.2284209550557</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10841,10 +10841,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>5.891030169484338</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11063,16 +11063,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>205.2462771841934</v>
+        <v>261.7930203334323</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,10 +11154,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11297,19 +11297,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>284.757376749226</v>
+        <v>79.87815626252541</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>5.891030169484338</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>35.99695141821329</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.7440105561691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.64651101484534</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338569</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>54.49131076932809</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,22 +23941,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>43.82350024843911</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>236.6134863240224</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>14.45548819888711</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>79.43092547709148</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>121.0138447039338</v>
       </c>
       <c r="E28" t="n">
-        <v>118.8323343322907</v>
+        <v>118.8323343322906</v>
       </c>
       <c r="F28" t="n">
-        <v>117.8194197086528</v>
+        <v>117.8194197086527</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>3.838682057688858</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>224.5360150095495</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>258.9213700223124</v>
       </c>
       <c r="X28" t="n">
-        <v>198.1080270747587</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>185.6658697091777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>152.2303518676588</v>
       </c>
       <c r="C31" t="n">
-        <v>139.6451927843494</v>
+        <v>139.6451927843493</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>121.0138447039338</v>
       </c>
       <c r="E31" t="n">
-        <v>118.8323343322907</v>
+        <v>118.8323343322906</v>
       </c>
       <c r="F31" t="n">
-        <v>117.8194197086528</v>
+        <v>117.8194197086527</v>
       </c>
       <c r="G31" t="n">
-        <v>138.8919401490992</v>
+        <v>125.7496974529832</v>
       </c>
       <c r="H31" t="n">
-        <v>121.3122000532577</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>82.81761714999355</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>193.9459327441108</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>53.00922896593346</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>190.9830250378162</v>
       </c>
     </row>
     <row r="32">
@@ -26314,13 +26314,13 @@
         <v>41052.08849321416</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321414</v>
       </c>
       <c r="D2" t="n">
         <v>41052.08849321418</v>
       </c>
       <c r="E2" t="n">
-        <v>39102.90597377088</v>
+        <v>39102.90597377087</v>
       </c>
       <c r="F2" t="n">
         <v>39102.90597377088</v>
@@ -26329,31 +26329,31 @@
         <v>39102.90597377087</v>
       </c>
       <c r="H2" t="n">
+        <v>39102.90597377087</v>
+      </c>
+      <c r="I2" t="n">
         <v>39102.90597377088</v>
       </c>
-      <c r="I2" t="n">
-        <v>39102.90597377087</v>
-      </c>
       <c r="J2" t="n">
-        <v>39892.55985414891</v>
+        <v>39892.55985414893</v>
       </c>
       <c r="K2" t="n">
-        <v>39892.5598541489</v>
+        <v>39892.55985414895</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="M2" t="n">
-        <v>41052.08849321414</v>
+        <v>41052.08849321415</v>
       </c>
       <c r="N2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321415</v>
       </c>
       <c r="O2" t="n">
         <v>41052.08849321415</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.08849321415</v>
+        <v>41052.08849321421</v>
       </c>
     </row>
     <row r="3">
@@ -26366,10 +26366,10 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>60975.92555038743</v>
+        <v>60975.92555038659</v>
       </c>
       <c r="D3" t="n">
-        <v>359462.5173298117</v>
+        <v>359462.5173298124</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768961</v>
@@ -26381,28 +26381,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.131660496866971e-09</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94335.9975225618</v>
+        <v>94335.99752256193</v>
       </c>
       <c r="K3" t="n">
-        <v>14177.10853800587</v>
+        <v>14177.10853800571</v>
       </c>
       <c r="L3" t="n">
-        <v>119246.011269906</v>
+        <v>119246.0112699061</v>
       </c>
       <c r="M3" t="n">
-        <v>69175.08933762902</v>
+        <v>69175.08933762905</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>22081.30265142279</v>
+        <v>22081.30265142285</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>316926.9684369122</v>
+        <v>316926.9684369123</v>
       </c>
       <c r="C4" t="n">
-        <v>299668.3554259911</v>
+        <v>299668.3554259914</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
         <v>43561.42148316556</v>
@@ -26433,16 +26433,16 @@
         <v>43561.42148316556</v>
       </c>
       <c r="H4" t="n">
-        <v>43561.42148316544</v>
+        <v>43561.42148316555</v>
       </c>
       <c r="I4" t="n">
-        <v>43561.42148316553</v>
+        <v>43561.42148316555</v>
       </c>
       <c r="J4" t="n">
-        <v>52643.7327402638</v>
+        <v>52643.73274026382</v>
       </c>
       <c r="K4" t="n">
-        <v>52643.73274026377</v>
+        <v>52643.73274026383</v>
       </c>
       <c r="L4" t="n">
         <v>65980.20872448603</v>
@@ -26451,13 +26451,13 @@
         <v>99837.12979766788</v>
       </c>
       <c r="N4" t="n">
-        <v>99837.12979766782</v>
+        <v>99837.12979766786</v>
       </c>
       <c r="O4" t="n">
-        <v>99837.12979766786</v>
+        <v>99837.12979766788</v>
       </c>
       <c r="P4" t="n">
-        <v>99837.12979766788</v>
+        <v>99837.12979766785</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>55564.2739097809</v>
+        <v>55564.27390978084</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,7 +26494,7 @@
         <v>94307.76723946971</v>
       </c>
       <c r="K5" t="n">
-        <v>94307.7672394697</v>
+        <v>94307.76723946971</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-453349.6009072912</v>
+        <v>-453349.6009072913</v>
       </c>
       <c r="C6" t="n">
-        <v>-375156.4663929453</v>
+        <v>-375156.4663929446</v>
       </c>
       <c r="D6" t="n">
-        <v>-593476.1032924367</v>
+        <v>-593476.1032924374</v>
       </c>
       <c r="E6" t="n">
-        <v>-621605.8779350074</v>
+        <v>-621703.3370609796</v>
       </c>
       <c r="F6" t="n">
-        <v>-96445.8414581113</v>
+        <v>-96543.30058408347</v>
       </c>
       <c r="G6" t="n">
-        <v>-96445.8414581113</v>
+        <v>-96543.30058408348</v>
       </c>
       <c r="H6" t="n">
-        <v>-96445.84145811235</v>
+        <v>-96543.30058408347</v>
       </c>
       <c r="I6" t="n">
-        <v>-96445.84145811027</v>
+        <v>-96543.30058408347</v>
       </c>
       <c r="J6" t="n">
-        <v>-201394.9376481464</v>
+        <v>-201452.9140800998</v>
       </c>
       <c r="K6" t="n">
-        <v>-121236.0486635904</v>
+        <v>-121294.0250955436</v>
       </c>
       <c r="L6" t="n">
-        <v>-241889.2373212032</v>
+        <v>-241889.2373212033</v>
       </c>
       <c r="M6" t="n">
         <v>-209664.0316078945</v>
       </c>
       <c r="N6" t="n">
+        <v>-140488.9422702655</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-162570.2449216883</v>
+      </c>
+      <c r="P6" t="n">
         <v>-140488.9422702654</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-162570.2449216882</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-140488.9422702655</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26707,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>27.60162831427848</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="K2" t="n">
-        <v>27.60162831427843</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964064</v>
@@ -26722,10 +26722,10 @@
         <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26738,22 +26738,22 @@
         <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>82.43998649668941</v>
+        <v>82.43998649668877</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26790,10 +26790,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>331.2414836209387</v>
+        <v>331.2414836209379</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>27.60162831427848</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>40.53026181536221</v>
+        <v>40.53026181536211</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.60162831427848</v>
+        <v>27.60162831427857</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>47.41872577756408</v>
+        <v>47.41872577756344</v>
       </c>
       <c r="D3" t="n">
-        <v>295.3036777203972</v>
+        <v>295.3036777203978</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-8.38879921655102e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>55.08496991858317</v>
+        <v>55.08496991858237</v>
       </c>
       <c r="D4" t="n">
-        <v>343.0457891336169</v>
+        <v>343.0457891336176</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023551</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>55.08496991858317</v>
+        <v>55.08496991858237</v>
       </c>
       <c r="L4" t="n">
-        <v>343.0457891336169</v>
+        <v>343.0457891336176</v>
       </c>
       <c r="M4" t="n">
-        <v>277.5841853968195</v>
+        <v>277.5841853968196</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.60162831427848</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>55.08496991858317</v>
+        <v>55.08496991858237</v>
       </c>
       <c r="L4" t="n">
-        <v>343.0457891336169</v>
+        <v>343.0457891336176</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>179.3408632164566</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.4795457699687</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505753</v>
       </c>
       <c r="X2" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>338.3872281184401</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>20.99004444910692</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27518,10 +27518,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>161.2063233033259</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166.3664703319366</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>88.60271584629923</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
         <v>153.551289182031</v>
@@ -27561,7 +27561,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>174.4537986637794</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51.49235804254192</v>
+        <v>51.49235804254272</v>
       </c>
       <c r="C5" t="n">
-        <v>34.0314081500689</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>84.77290907306497</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27634,7 +27634,7 @@
         <v>336.0806774455793</v>
       </c>
       <c r="I5" t="n">
-        <v>129.2567059187535</v>
+        <v>197.6989344772859</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>129.0507428586465</v>
+        <v>129.0507428586467</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>201.4679039890864</v>
       </c>
       <c r="T5" t="n">
         <v>221.6450715103052</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>17.99948509647436</v>
+        <v>17.99948509647515</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>38.48961705753118</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,16 +27695,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>38.85919156989777</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.1661934186706</v>
@@ -27713,7 +27713,7 @@
         <v>110.522870177386</v>
       </c>
       <c r="I6" t="n">
-        <v>83.29140743633006</v>
+        <v>58.75826799369246</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>89.14820727672685</v>
       </c>
       <c r="S6" t="n">
         <v>168.3894603225786</v>
       </c>
       <c r="T6" t="n">
-        <v>199.4499895666097</v>
+        <v>199.4499895666098</v>
       </c>
       <c r="U6" t="n">
         <v>225.9297160451498</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>61.31754852579651</v>
       </c>
       <c r="G7" t="n">
         <v>167.842317087727</v>
@@ -27795,10 +27795,10 @@
         <v>150.9797950037985</v>
       </c>
       <c r="J7" t="n">
-        <v>82.84875757593912</v>
+        <v>82.84875757593919</v>
       </c>
       <c r="K7" t="n">
-        <v>4.997638917232191</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>73.71360529069437</v>
       </c>
       <c r="R7" t="n">
-        <v>8.787499324752531</v>
+        <v>170.6089950949954</v>
       </c>
       <c r="S7" t="n">
         <v>221.4258201006747</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>343.9007153107773</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>346.0249463715818</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,22 +28062,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>141.2104398502179</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>97.82792700333762</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>27.60162831427848</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="C28" t="n">
-        <v>27.60162831427848</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="D28" t="n">
-        <v>27.60162831427848</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="E28" t="n">
-        <v>27.60162831427848</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="F28" t="n">
-        <v>27.60162831427848</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="G28" t="n">
-        <v>27.60162831427848</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="H28" t="n">
-        <v>27.60162831427848</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="I28" t="n">
-        <v>27.60162831427848</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="J28" t="n">
-        <v>27.60162831427848</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="K28" t="n">
-        <v>27.60162831427848</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="L28" t="n">
-        <v>27.60162831427848</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="M28" t="n">
-        <v>27.60162831427848</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="N28" t="n">
-        <v>27.60162831427848</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="O28" t="n">
-        <v>27.60162831427848</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="P28" t="n">
-        <v>27.60162831427848</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="Q28" t="n">
-        <v>27.60162831427848</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="R28" t="n">
-        <v>27.60162831427848</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="S28" t="n">
-        <v>27.60162831427848</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="T28" t="n">
-        <v>27.60162831427848</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="U28" t="n">
-        <v>27.60162831427848</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="V28" t="n">
-        <v>27.60162831427848</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="W28" t="n">
-        <v>27.60162831427848</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="X28" t="n">
-        <v>27.60162831427848</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="Y28" t="n">
-        <v>27.60162831427848</v>
+        <v>27.60162831427854</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>27.60162831427843</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="C31" t="n">
-        <v>27.60162831427843</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="D31" t="n">
-        <v>27.60162831427843</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="E31" t="n">
-        <v>27.60162831427843</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="F31" t="n">
-        <v>27.60162831427843</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="G31" t="n">
-        <v>27.60162831427843</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="H31" t="n">
-        <v>27.60162831427843</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="I31" t="n">
-        <v>27.60162831427843</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="J31" t="n">
-        <v>27.60162831427843</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="K31" t="n">
-        <v>27.60162831427843</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="L31" t="n">
-        <v>27.60162831427843</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="M31" t="n">
-        <v>27.60162831427843</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="N31" t="n">
-        <v>27.60162831427843</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="O31" t="n">
-        <v>27.60162831427843</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="P31" t="n">
-        <v>27.60162831427843</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="Q31" t="n">
-        <v>27.60162831427843</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="R31" t="n">
-        <v>27.60162831427843</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="S31" t="n">
-        <v>27.60162831427843</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="T31" t="n">
-        <v>27.60162831427843</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="U31" t="n">
-        <v>27.60162831427843</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="V31" t="n">
-        <v>27.60162831427843</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="W31" t="n">
-        <v>27.60162831427843</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="X31" t="n">
-        <v>27.60162831427843</v>
+        <v>27.60162831427854</v>
       </c>
       <c r="Y31" t="n">
-        <v>27.60162831427843</v>
+        <v>27.60162831427854</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30280,7 +30280,7 @@
         <v>68.13189012964064</v>
       </c>
       <c r="V38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964182</v>
       </c>
       <c r="W38" t="n">
         <v>68.13189012964064</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V41" t="n">
-        <v>68.13189012964182</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964153</v>
       </c>
       <c r="Y41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U44" t="n">
-        <v>68.13189012964168</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3314170311424697</v>
+        <v>0.3314170311424672</v>
       </c>
       <c r="H5" t="n">
-        <v>3.394124670187819</v>
+        <v>3.394124670187793</v>
       </c>
       <c r="I5" t="n">
-        <v>12.77695509312008</v>
+        <v>12.77695509311998</v>
       </c>
       <c r="J5" t="n">
-        <v>28.12860624692822</v>
+        <v>28.128606246928</v>
       </c>
       <c r="K5" t="n">
-        <v>42.15748917518897</v>
+        <v>42.15748917518864</v>
       </c>
       <c r="L5" t="n">
-        <v>52.30009314201534</v>
+        <v>52.30009314201494</v>
       </c>
       <c r="M5" t="n">
-        <v>58.19393076959523</v>
+        <v>58.19393076959479</v>
       </c>
       <c r="N5" t="n">
-        <v>59.13556940932878</v>
+        <v>59.13556940932833</v>
       </c>
       <c r="O5" t="n">
-        <v>55.84004130590584</v>
+        <v>55.84004130590541</v>
       </c>
       <c r="P5" t="n">
-        <v>47.65818334957611</v>
+        <v>47.65818334957574</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.7893109217864</v>
+        <v>35.78931092178613</v>
       </c>
       <c r="R5" t="n">
-        <v>20.81837508250318</v>
+        <v>20.81837508250302</v>
       </c>
       <c r="S5" t="n">
-        <v>7.552165597159037</v>
+        <v>7.552165597158979</v>
       </c>
       <c r="T5" t="n">
-        <v>1.450778053826162</v>
+        <v>1.450778053826151</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02651336249139757</v>
+        <v>0.02651336249139737</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1773237445400489</v>
+        <v>0.1773237445400476</v>
       </c>
       <c r="H6" t="n">
-        <v>1.712574059110473</v>
+        <v>1.71257405911046</v>
       </c>
       <c r="I6" t="n">
-        <v>6.105225415085019</v>
+        <v>6.105225415084972</v>
       </c>
       <c r="J6" t="n">
-        <v>16.75320518042629</v>
+        <v>16.75320518042616</v>
       </c>
       <c r="K6" t="n">
-        <v>28.63389606460957</v>
+        <v>28.63389606460935</v>
       </c>
       <c r="L6" t="n">
-        <v>38.50180690111896</v>
+        <v>38.50180690111866</v>
       </c>
       <c r="M6" t="n">
-        <v>44.92979264069572</v>
+        <v>44.92979264069537</v>
       </c>
       <c r="N6" t="n">
-        <v>46.11895055912439</v>
+        <v>46.11895055912404</v>
       </c>
       <c r="O6" t="n">
-        <v>42.18982969326331</v>
+        <v>42.18982969326298</v>
       </c>
       <c r="P6" t="n">
-        <v>33.86105784993268</v>
+        <v>33.86105784993241</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.63522044339291</v>
+        <v>22.63522044339274</v>
       </c>
       <c r="R6" t="n">
-        <v>11.00962687591637</v>
+        <v>11.00962687591629</v>
       </c>
       <c r="S6" t="n">
-        <v>3.29371078125924</v>
+        <v>3.293710781259215</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7147391282118636</v>
+        <v>0.7147391282118581</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01166603582500322</v>
+        <v>0.01166603582500313</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.148662270731735</v>
+        <v>0.1486622707317338</v>
       </c>
       <c r="H7" t="n">
-        <v>1.321742734323972</v>
+        <v>1.321742734323962</v>
       </c>
       <c r="I7" t="n">
-        <v>4.470679923459814</v>
+        <v>4.470679923459779</v>
       </c>
       <c r="J7" t="n">
-        <v>10.51042254073366</v>
+        <v>10.51042254073358</v>
       </c>
       <c r="K7" t="n">
-        <v>17.27185290865066</v>
+        <v>17.27185290865053</v>
       </c>
       <c r="L7" t="n">
-        <v>22.10202523224359</v>
+        <v>22.10202523224341</v>
       </c>
       <c r="M7" t="n">
-        <v>23.30348667479369</v>
+        <v>23.30348667479351</v>
       </c>
       <c r="N7" t="n">
-        <v>22.74938184752088</v>
+        <v>22.74938184752071</v>
       </c>
       <c r="O7" t="n">
-        <v>21.01273623033651</v>
+        <v>21.01273623033635</v>
       </c>
       <c r="P7" t="n">
-        <v>17.9800259074091</v>
+        <v>17.98002590740897</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.4484379610001</v>
+        <v>12.44843796100001</v>
       </c>
       <c r="R7" t="n">
-        <v>6.684396282174192</v>
+        <v>6.68439628217414</v>
       </c>
       <c r="S7" t="n">
-        <v>2.590777936297599</v>
+        <v>2.590777936297579</v>
       </c>
       <c r="T7" t="n">
-        <v>0.6351933385810493</v>
+        <v>0.6351933385810444</v>
       </c>
       <c r="U7" t="n">
-        <v>0.008108851130821918</v>
+        <v>0.008108851130821855</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104662</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361502</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337681</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522134</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>138.7877391315785</v>
@@ -34787,7 +34787,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>151.8955562274027</v>
+        <v>158.2658797799248</v>
       </c>
       <c r="O3" t="n">
         <v>269.1887005891756</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>16.1793168923157</v>
+        <v>16.17931689231548</v>
       </c>
       <c r="K5" t="n">
-        <v>146.2130507013732</v>
+        <v>146.2130507013728</v>
       </c>
       <c r="L5" t="n">
-        <v>234.1948927224785</v>
+        <v>234.1948927224781</v>
       </c>
       <c r="M5" t="n">
-        <v>277.361231035155</v>
+        <v>277.3612310351546</v>
       </c>
       <c r="N5" t="n">
-        <v>267.0694302247221</v>
+        <v>267.0694302247216</v>
       </c>
       <c r="O5" t="n">
-        <v>206.5420111469645</v>
+        <v>206.542011146964</v>
       </c>
       <c r="P5" t="n">
-        <v>138.2238957657892</v>
+        <v>138.2238957657889</v>
       </c>
       <c r="Q5" t="n">
-        <v>25.7986117072416</v>
+        <v>25.79861170724132</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>155.257694102829</v>
       </c>
       <c r="L6" t="n">
-        <v>44.56341525985414</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>331.2414836209387</v>
+        <v>220.5472047779623</v>
       </c>
       <c r="N6" t="n">
-        <v>331.2414836209387</v>
+        <v>331.2414836209379</v>
       </c>
       <c r="O6" t="n">
-        <v>293.4559045255484</v>
+        <v>293.4559045255481</v>
       </c>
       <c r="P6" t="n">
-        <v>218.3494190755396</v>
+        <v>218.3494190755393</v>
       </c>
       <c r="Q6" t="n">
-        <v>92.73073409322049</v>
+        <v>92.73073409322032</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>49.69205049255973</v>
+        <v>49.69205049255955</v>
       </c>
       <c r="M7" t="n">
-        <v>62.88736363663428</v>
+        <v>62.8873636366341</v>
       </c>
       <c r="N7" t="n">
-        <v>66.88155422674947</v>
+        <v>66.8815542267493</v>
       </c>
       <c r="O7" t="n">
-        <v>45.59786414437619</v>
+        <v>45.59786414437603</v>
       </c>
       <c r="P7" t="n">
-        <v>15.25858517230259</v>
+        <v>15.25858517230245</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,19 +35969,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>594.0337100330154</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349123</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.502597509196</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36449,16 +36449,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>516.7753531914248</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>40.10939847984402</v>
+        <v>40.10939847984407</v>
       </c>
       <c r="K28" t="n">
         <v>179.3040568441891</v>
       </c>
       <c r="L28" t="n">
-        <v>277.815815194207</v>
+        <v>277.8158151942071</v>
       </c>
       <c r="M28" t="n">
         <v>301.911469493251</v>
       </c>
       <c r="N28" t="n">
-        <v>300.8785061198821</v>
+        <v>300.8785061198822</v>
       </c>
       <c r="O28" t="n">
-        <v>263.8389798348813</v>
+        <v>263.8389798348815</v>
       </c>
       <c r="P28" t="n">
         <v>205.9852289260793</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.82732828615325</v>
+        <v>66.8273282861533</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
         <v>713.1546070951472</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>40.10939847984396</v>
+        <v>40.10939847984407</v>
       </c>
       <c r="K31" t="n">
-        <v>179.304056844189</v>
+        <v>179.3040568441891</v>
       </c>
       <c r="L31" t="n">
-        <v>277.8158151942069</v>
+        <v>277.8158151942071</v>
       </c>
       <c r="M31" t="n">
-        <v>301.9114694932509</v>
+        <v>301.911469493251</v>
       </c>
       <c r="N31" t="n">
-        <v>300.878506119882</v>
+        <v>300.8785061198822</v>
       </c>
       <c r="O31" t="n">
-        <v>263.8389798348813</v>
+        <v>263.8389798348815</v>
       </c>
       <c r="P31" t="n">
-        <v>205.9852289260792</v>
+        <v>205.9852289260793</v>
       </c>
       <c r="Q31" t="n">
-        <v>66.82732828615319</v>
+        <v>66.8273282861533</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>350.3150673110547</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>304.9321262954635</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>355.8161167292792</v>
       </c>
       <c r="N35" t="n">
         <v>366.2340059961277</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>557.2864128781291</v>
       </c>
       <c r="P35" t="n">
-        <v>248.8073173394297</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>127.2102422761848</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,13 +37546,13 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>556.7129436173815</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>355.8161167292792</v>
+        <v>369.0445376843349</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>366.2340059961277</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37561,10 +37561,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>138.1845934903002</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
@@ -37637,10 +37637,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,16 +37783,16 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>496.2761293446501</v>
+        <v>552.822872493889</v>
       </c>
       <c r="M41" t="n">
         <v>355.8161167292792</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>366.2340059961277</v>
       </c>
       <c r="O41" t="n">
-        <v>332.3544258324018</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
@@ -37874,10 +37874,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,19 +38017,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>204.5443435591683</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>291.0298521604568</v>
       </c>
       <c r="M44" t="n">
-        <v>355.8161167292792</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>366.2340059961277</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>617.1118025816278</v>
+        <v>412.2325820949272</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504663</v>
@@ -38108,16 +38108,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
